--- a/OutBoundProd 11_15_2017.xlsx
+++ b/OutBoundProd 11_15_2017.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
-  <si>
-    <t>FUCK</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+  <si>
+    <t>HOUR</t>
   </si>
   <si>
     <t>Tech</t>
@@ -44,13 +44,31 @@
     <t>Tech Total</t>
   </si>
   <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>asdfadsfadf</t>
+  </si>
+  <si>
+    <t>2356</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
     <t>Total Dev</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -58,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="47">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -66,8 +84,238 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,27 +323,42 @@
       <patternFill patternType="darkGray"/>
     </fill>
     <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
+      <patternFill patternType="none">
+        <fgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill>
-        <fgColor indexed="64"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="49"/>
+        <fgColor indexed="23"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,12 +483,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -235,11 +498,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K4"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="3" max="3" width="11.69921875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="4">
@@ -301,6 +567,93 @@
         <v>12</v>
       </c>
       <c r="J4" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s" s="1">
         <v>12</v>
       </c>
     </row>

--- a/OutBoundProd 11_15_2017.xlsx
+++ b/OutBoundProd 11_15_2017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
   <si>
     <t>HOUR</t>
   </si>
@@ -44,25 +44,16 @@
     <t>Tech Total</t>
   </si>
   <si>
-    <t>1345</t>
-  </si>
-  <si>
-    <t>asdf</t>
+    <t>3333</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2345</t>
-  </si>
-  <si>
-    <t>asdfadsfadf</t>
-  </si>
-  <si>
-    <t>2356</t>
-  </si>
-  <si>
-    <t>as</t>
+    <t>2222</t>
   </si>
   <si>
     <t>Total Dev</t>
@@ -76,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="47">
+  <fonts count="75">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -267,52 +258,192 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
   </fonts>
   <fills count="10">
@@ -481,30 +612,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="73" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="11.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.36328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -575,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s" s="1">
         <v>12</v>
@@ -601,11 +738,11 @@
     </row>
     <row r="6">
       <c r="B6" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="1">
-        <v>16</v>
-      </c>
       <c r="D6" t="s" s="1">
         <v>12</v>
       </c>
@@ -624,42 +761,135 @@
       <c r="I6" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="J6" t="s" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s" s="1">
+      <c r="J6" t="s" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s" s="7">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B8:J8"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/OutBoundProd 11_15_2017.xlsx
+++ b/OutBoundProd 11_15_2017.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="20">
   <si>
     <t>HOUR</t>
   </si>
@@ -44,22 +44,34 @@
     <t>Tech Total</t>
   </si>
   <si>
-    <t>3333</t>
-  </si>
-  <si>
-    <t/>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>Vince</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2222</t>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>Smith Man Smelly</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Veefc</t>
   </si>
   <si>
     <t>Total Dev</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -67,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="75">
+  <fonts count="93">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -258,57 +270,147 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -614,34 +716,34 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="73" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="91" fillId="9" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="6.36328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -712,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="1">
         <v>12</v>
@@ -738,10 +840,10 @@
     </row>
     <row r="6">
       <c r="B6" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s" s="1">
         <v>12</v>
@@ -761,76 +863,76 @@
       <c r="I6" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="J6" t="s" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s" s="6">
+      <c r="J6" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="2">
+    <row r="10">
+      <c r="B10" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C10" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D9" t="s" s="2">
+      <c r="D10" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E10" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F10" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G10" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H10" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I9" t="s" s="2">
+      <c r="I10" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J9" t="s" s="2">
+      <c r="J10" t="s" s="2">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="s" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s" s="1">
         <v>11</v>
@@ -859,37 +961,95 @@
     </row>
     <row r="12">
       <c r="B12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="C12" t="s" s="1">
+      <c r="D12" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="D12" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s" s="1">
-        <v>12</v>
-      </c>
-      <c r="J12" t="s" s="7">
-        <v>12</v>
+      <c r="C13" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s" s="7">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
